--- a/quan.java/config/excel/道具/道具.xlsx
+++ b/quan.java/config/excel/道具/道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FFC1C-5AC4-4E8B-A79B-F346EAB46E84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BDF6E7-A1F1-43E1-9FE6-F744FAD23939}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>item2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseEffect_123</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseEffect2_456_33</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1072,22 +1084,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,28 +1114,31 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1156,8 +1172,11 @@
       <c r="K2" t="s">
         <v>6</v>
       </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1171,28 +1190,31 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1206,24 +1228,27 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>21</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>244</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1231,19 +1256,19 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/quan.java/config/excel/道具/道具.xlsx
+++ b/quan.java/config/excel/道具/道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\quan.java\config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BDF6E7-A1F1-43E1-9FE6-F744FAD23939}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203A28C6-9AE2-4537-B397-B46291E6D962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/quan.java/config/excel/道具/道具.xlsx
+++ b/quan.java/config/excel/道具/道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\quan.java\config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203A28C6-9AE2-4537-B397-B46291E6D962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843BD819-1656-4882-8C02-A1EF962EE115}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,6 @@
     <t>生效时间</t>
   </si>
   <si>
-    <t>2019.08.05 12.33.55</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>22;22;456</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>UseEffect2_456_33</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-05 12:33:55</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -725,8 +725,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,7 +1090,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1105,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1181,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1190,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1202,16 +1205,16 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1219,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1228,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1243,7 +1246,7 @@
         <v>244</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1266,7 +1269,7 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
